--- a/.xlsx
+++ b/.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>1</t>
   </si>
@@ -47,12 +47,6 @@
   </si>
   <si>
     <t>Verse 2</t>
-  </si>
-  <si>
-    <t>Verse 3</t>
-  </si>
-  <si>
-    <t>Verse 4</t>
   </si>
   <si>
     <t>Hook</t>
@@ -387,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,31 +421,31 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -459,31 +453,31 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
       <c r="I3">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="J3">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -491,127 +485,63 @@
         <v>11</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J4">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
         <v>6</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I5">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>22</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>24</v>
-      </c>
-      <c r="I7">
-        <v>63</v>
-      </c>
-      <c r="J7">
-        <v>81</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
